--- a/Hardware/NoiseGen.xlsx
+++ b/Hardware/NoiseGen.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
   <si>
     <t xml:space="preserve">Reference</t>
   </si>
@@ -119,6 +119,21 @@
   </si>
   <si>
     <t xml:space="preserve">150060RS75000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM1214A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM1214A-01SOOSCT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM1214A-01SO</t>
   </si>
   <si>
     <t xml:space="preserve">J1 </t>
@@ -569,11 +584,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -670,10 +685,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:I22"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -868,22 +883,22 @@
         <f aca="false">C9*3</f>
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>36</v>
+      <c r="H9" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -893,24 +908,21 @@
         <v>3</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -920,15 +932,18 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="I11" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -955,7 +970,6 @@
       <c r="H12" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
@@ -972,56 +986,57 @@
         <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">C14*3</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>60</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">C15*3</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>64</v>
@@ -1045,18 +1060,18 @@
         <v>67</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -1066,34 +1081,34 @@
         <v>3</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">C18*3</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>77</v>
@@ -1107,55 +1122,52 @@
         <v>79</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">C19*3</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>80</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="0" t="n">
         <f aca="false">C20*3</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>85</v>
+        <v>50</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>4</v>
@@ -1164,47 +1176,74 @@
         <f aca="false">C21*3</f>
         <v>12</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>84</v>
+      <c r="E21" s="0" t="s">
+        <v>89</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>85</v>
+        <v>41</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" s="0" t="n">
         <f aca="false">C22*3</f>
-        <v>3</v>
-      </c>
-      <c r="E22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">C23*3</f>
+        <v>3</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>90</v>
+      <c r="F23" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
